--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_64.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_107</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1142241379310345</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F:min']]</t>
+          <t>[['D', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.7, 21.36)]</t>
+          <t>[['Bb', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(30.076213, 37.274399)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>[('0:00:24.425238', '0:00:33.479637')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:34.197755', '0:00:40.606462')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09717868338557994</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09018567639257294</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.088141, 27.709728)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:16.580000', '0:00:22.660000'), ('0:00:07.140000', '0:00:14.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08542372881355932</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1362645348837209</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D'], ['B:min', 'E:min', 'A']]</t>
+          <t>[['G/3', 'G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.93948, 19.795536), (38.139299, 41.982202)]</t>
+          <t>[['A/b3', 'A/3', 'D', 'A', 'A/2']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.416621, 8.435215), (8.435215, 13.067596)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:41.649000', '0:00:49.404000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:05.369945', '0:01:12.097891')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06831831831831832</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07984496124031007</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'D']]</t>
+          <t>[['D:7', 'G:min', 'F#:dim7', 'G:min'], ['D:7', 'G:min', 'G:min', 'A:hdim7/C'], ['G:min', 'F#:dim7', 'G:min', 'F#:dim7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(131.54, 134.26)]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.919344, 16.143834)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.920000', '0:00:22.040000'), ('0:00:11.620000', '0:00:16.920000'), ('0:00:18.200000', '0:00:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:12.840000', '0:01:22.480000'), ('0:00:24.540000', '0:00:31.640000'), ('0:00:00.240000', '0:00:09.720000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08307692307692308</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1715686274509804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.7, 11.86), (67.76, 77.5)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.88, 12.97), (4.83, 10.94)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04567307692307693</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab'], ['F:min7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C'], ['A:min7', 'D:7', 'G:maj6']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(86.46, 88.16), (1.01, 2.26)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.37, 45.67), (23.94, 28.13)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58), (14.86, 17.32)]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28), (7.48, 13.84)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:58.940000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1418380889183809</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.02, 30.14), (12.14, 20.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.62, 33.76), (47.68, 51.98)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2126696832579186</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.615532, 8.760294)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1596638655462185</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.34, 17.94)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(91.834264, 98.974002)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Eb']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.607913, 29.611814)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(131.54, 134.26)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1015151515151515</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.263975, 17.488465)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1164473684210526</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'F/9'], ['C', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.811411149825784</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'G'], ['D', 'A', 'A']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(35.662222, 43.057777), (50.604263, 57.976598)]</t>
+          <t>[['A', 'D', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/4', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.611451, 16.24229), (16.24229, 26.56356)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:17.965212', '0:01:23.364215')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:44.130000', '0:03:13.674000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
